--- a/Tableau et diagramme/GanttV1.xlsx
+++ b/Tableau et diagramme/GanttV1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161558D7-CCFA-4D04-A270-C2DE0759D113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D140EC-98C2-4C15-BCB5-FD035C1AB9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2284,8 +2284,8 @@
   </sheetPr>
   <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7742,7 +7742,7 @@
         <v>69</v>
       </c>
       <c r="D29" s="53">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E29" s="24">
         <v>44481</v>
@@ -11831,7 +11831,7 @@
         <v>67</v>
       </c>
       <c r="D46" s="53">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E46" s="24">
         <v>44488</v>

--- a/Tableau et diagramme/GanttV1.xlsx
+++ b/Tableau et diagramme/GanttV1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D140EC-98C2-4C15-BCB5-FD035C1AB9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04370CE-8E51-4199-AA6E-BC6AD570065C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2284,8 +2284,8 @@
   </sheetPr>
   <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -9184,7 +9184,7 @@
         <v>65</v>
       </c>
       <c r="D35" s="53">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E35" s="24">
         <v>44502</v>

--- a/Tableau et diagramme/GanttV1.xlsx
+++ b/Tableau et diagramme/GanttV1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04370CE-8E51-4199-AA6E-BC6AD570065C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="415"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -289,7 +288,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1281,7 +1280,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1303,7 +1302,7 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="36">
     <dxf>
@@ -1836,12 +1835,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="35"/>
       <tableStyleElement type="headerRow" dxfId="34"/>
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="totalRow" dxfId="30"/>
@@ -1945,11 +1944,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>33338</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>185738</xdr:colOff>
+          <xdr:colOff>184150</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -1992,8 +1991,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F50" totalsRowShown="0">
-  <autoFilter ref="B6:F50" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F50" totalsRowShown="0">
+  <autoFilter ref="B6:F50">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2001,11 +2000,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
+    <tableColumn id="1" name="Description du jalon" dataDxfId="2"/>
+    <tableColumn id="3" name="Affecté à" dataDxfId="1"/>
+    <tableColumn id="4" name="Avancement" dataDxfId="0"/>
+    <tableColumn id="5" name="Début"/>
+    <tableColumn id="6" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -2278,30 +2277,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A44" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="26.73046875" customWidth="1"/>
-    <col min="3" max="3" width="20.53125" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="2.73046875" customWidth="1"/>
-    <col min="8" max="63" width="3.53125" customWidth="1"/>
-    <col min="68" max="69" width="10.265625"/>
+    <col min="7" max="7" width="2.7265625" customWidth="1"/>
+    <col min="8" max="63" width="3.54296875" customWidth="1"/>
+    <col min="68" max="69" width="10.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.2" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2314,7 +2313,7 @@
       <c r="I1" s="18"/>
       <c r="AF1" s="18"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -2337,7 +2336,7 @@
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -2358,7 +2357,7 @@
       <c r="L3" s="44"/>
       <c r="M3" s="43"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -2454,7 +2453,7 @@
       <c r="BJ4" s="17"/>
       <c r="BK4" s="17"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -2930,7 +2929,7 @@
         <v>m</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -2996,7 +2995,7 @@
       <c r="BJ7" s="38"/>
       <c r="BK7" s="38"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -3235,7 +3234,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="50" t="s">
         <v>22</v>
@@ -3478,7 +3477,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="50" t="s">
         <v>23</v>
@@ -3721,7 +3720,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="50" t="s">
         <v>24</v>
@@ -3964,7 +3963,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="50" t="s">
         <v>25</v>
@@ -4207,7 +4206,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="50" t="s">
         <v>26</v>
@@ -4450,7 +4449,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="55" t="s">
         <v>27</v>
@@ -4687,7 +4686,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="50" t="s">
         <v>28</v>
@@ -4930,7 +4929,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="50" t="s">
         <v>29</v>
@@ -5173,7 +5172,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="50" t="s">
         <v>30</v>
@@ -5416,7 +5415,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="50" t="s">
         <v>31</v>
@@ -5657,7 +5656,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="50" t="s">
         <v>34</v>
@@ -5730,7 +5729,7 @@
       <c r="BJ19" s="27"/>
       <c r="BK19" s="27"/>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="50" t="s">
         <v>33</v>
@@ -5803,7 +5802,7 @@
       <c r="BJ20" s="27"/>
       <c r="BK20" s="27"/>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="50" t="s">
         <v>32</v>
@@ -6046,7 +6045,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="55" t="s">
         <v>35</v>
@@ -6283,7 +6282,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="50" t="s">
         <v>36</v>
@@ -6526,7 +6525,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="50" t="s">
         <v>37</v>
@@ -6769,7 +6768,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="50" t="s">
         <v>38</v>
@@ -7012,7 +7011,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="55" t="s">
         <v>39</v>
@@ -7249,7 +7248,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="50" t="s">
         <v>40</v>
@@ -7490,7 +7489,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="50" t="s">
         <v>41</v>
@@ -7733,7 +7732,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="50" t="s">
         <v>42</v>
@@ -7974,7 +7973,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="50" t="s">
         <v>43</v>
@@ -8215,7 +8214,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="55" t="s">
         <v>44</v>
@@ -8452,7 +8451,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="50" t="s">
         <v>45</v>
@@ -8693,7 +8692,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:63" s="2" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:63" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="50" t="s">
         <v>46</v>
@@ -8934,7 +8933,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="50" t="s">
         <v>47</v>
@@ -9175,7 +9174,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="50" t="s">
         <v>48</v>
@@ -9416,7 +9415,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="50" t="s">
         <v>49</v>
@@ -9657,7 +9656,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="55" t="s">
         <v>50</v>
@@ -9894,7 +9893,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>51</v>
       </c>
@@ -10139,7 +10138,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:63" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:63" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
       <c r="B39" s="51" t="s">
         <v>53</v>
@@ -10380,7 +10379,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
       <c r="B40" s="51" t="s">
         <v>54</v>
@@ -10621,7 +10620,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:63" s="2" customFormat="1" ht="44.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:63" s="2" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="51" t="s">
         <v>55</v>
@@ -10862,7 +10861,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:63" s="2" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:63" s="2" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
       <c r="B42" s="51" t="s">
         <v>56</v>
@@ -11103,7 +11102,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="51" t="s">
         <v>57</v>
@@ -11344,7 +11343,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="55" t="s">
         <v>58</v>
@@ -11581,7 +11580,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:63" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:63" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="51" t="s">
         <v>56</v>
@@ -11590,7 +11589,7 @@
         <v>67</v>
       </c>
       <c r="D45" s="53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E45" s="24">
         <v>44502</v>
@@ -11822,7 +11821,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:63" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:63" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12"/>
       <c r="B46" s="51" t="s">
         <v>59</v>
@@ -11831,7 +11830,7 @@
         <v>67</v>
       </c>
       <c r="D46" s="53">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E46" s="24">
         <v>44488</v>
@@ -12063,7 +12062,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:63" s="2" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:63" s="2" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12"/>
       <c r="B47" s="51" t="s">
         <v>60</v>
@@ -12072,239 +12071,241 @@
         <v>67</v>
       </c>
       <c r="D47" s="53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E47" s="24">
         <v>44502</v>
       </c>
-      <c r="F47" s="45"/>
+      <c r="F47" s="45">
+        <v>15</v>
+      </c>
       <c r="G47" s="20"/>
       <c r="H47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK47" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:63" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:63" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12"/>
       <c r="B48" s="51" t="s">
         <v>61</v>
@@ -12313,239 +12314,241 @@
         <v>67</v>
       </c>
       <c r="D48" s="53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E48" s="24">
         <v>44516</v>
       </c>
-      <c r="F48" s="45"/>
+      <c r="F48" s="45">
+        <v>21</v>
+      </c>
       <c r="G48" s="20"/>
       <c r="H48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK48" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12"/>
       <c r="B49" s="51" t="s">
         <v>62</v>
@@ -12554,239 +12557,241 @@
         <v>67</v>
       </c>
       <c r="D49" s="53">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E49" s="24">
         <v>44516</v>
       </c>
-      <c r="F49" s="45"/>
+      <c r="F49" s="45">
+        <v>8</v>
+      </c>
       <c r="G49" s="20"/>
       <c r="H49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK49" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12"/>
       <c r="B50" s="51" t="s">
         <v>63</v>
@@ -12795,239 +12800,241 @@
         <v>67</v>
       </c>
       <c r="D50" s="53">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E50" s="24">
         <v>44523</v>
       </c>
-      <c r="F50" s="45"/>
+      <c r="F50" s="45">
+        <v>14</v>
+      </c>
       <c r="G50" s="20"/>
       <c r="H50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK50" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="13" t="s">
         <v>8</v>
       </c>
@@ -13094,12 +13101,12 @@
       <c r="BJ51" s="26"/>
       <c r="BK51" s="26"/>
     </row>
-    <row r="52" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C52" s="5"/>
       <c r="F52" s="14"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C53" s="6"/>
     </row>
   </sheetData>
@@ -13509,7 +13516,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -13533,11 +13540,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>33338</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>185738</xdr:colOff>
+                    <xdr:colOff>184150</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </to>
@@ -14086,33 +14093,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.19921875" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.19921875" style="8"/>
+    <col min="1" max="1" width="87.1796875" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.2" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
